--- a/src/spreadsheets/Decimals_Hard.xlsx
+++ b/src/spreadsheets/Decimals_Hard.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Google Drive\Grade 11\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Hard (Add, Sub, Mult, Div)" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.###"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -76,7 +72,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,7 +356,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,7 +379,7 @@
         <v>18.5</v>
       </c>
       <c r="E1" s="1">
-        <f>B1+D1</f>
+        <f t="shared" ref="E1:E25" si="0">B1+D1</f>
         <v>31.5</v>
       </c>
     </row>
@@ -401,7 +397,7 @@
         <v>10.8</v>
       </c>
       <c r="E2" s="1">
-        <f>B2+D2</f>
+        <f t="shared" si="0"/>
         <v>15.8</v>
       </c>
     </row>
@@ -419,7 +415,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1">
-        <f>B3+D3</f>
+        <f t="shared" si="0"/>
         <v>12.7</v>
       </c>
     </row>
@@ -437,7 +433,7 @@
         <v>1.9</v>
       </c>
       <c r="E4" s="1">
-        <f>B4+D4</f>
+        <f t="shared" si="0"/>
         <v>18.7</v>
       </c>
     </row>
@@ -455,7 +451,7 @@
         <v>13.4</v>
       </c>
       <c r="E5" s="1">
-        <f>B5+D5</f>
+        <f t="shared" si="0"/>
         <v>33.1</v>
       </c>
     </row>
@@ -473,7 +469,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="E6" s="1">
-        <f>B6+D6</f>
+        <f t="shared" si="0"/>
         <v>38.200000000000003</v>
       </c>
     </row>
@@ -491,7 +487,7 @@
         <v>7.9</v>
       </c>
       <c r="E7" s="1">
-        <f>B7+D7</f>
+        <f t="shared" si="0"/>
         <v>11.600000000000001</v>
       </c>
     </row>
@@ -509,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="1">
-        <f>B8+D8</f>
+        <f t="shared" si="0"/>
         <v>12.6</v>
       </c>
     </row>
@@ -527,7 +523,7 @@
         <v>10.9</v>
       </c>
       <c r="E9" s="1">
-        <f>B9+D9</f>
+        <f t="shared" si="0"/>
         <v>13.8</v>
       </c>
     </row>
@@ -545,7 +541,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E10" s="1">
-        <f>B10+D10</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
@@ -563,7 +559,7 @@
         <v>10.6</v>
       </c>
       <c r="E11" s="1">
-        <f>B11+D11</f>
+        <f t="shared" si="0"/>
         <v>17.399999999999999</v>
       </c>
     </row>
@@ -581,7 +577,7 @@
         <v>14.3</v>
       </c>
       <c r="E12" s="1">
-        <f>B12+D12</f>
+        <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
     </row>
@@ -599,7 +595,7 @@
         <v>12.3</v>
       </c>
       <c r="E13" s="1">
-        <f>B13+D13</f>
+        <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
     </row>
@@ -617,7 +613,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="E14" s="1">
-        <f>B14+D14</f>
+        <f t="shared" si="0"/>
         <v>24.200000000000003</v>
       </c>
     </row>
@@ -635,7 +631,7 @@
         <v>6.5</v>
       </c>
       <c r="E15" s="1">
-        <f>B15+D15</f>
+        <f t="shared" si="0"/>
         <v>23.5</v>
       </c>
     </row>
@@ -653,7 +649,7 @@
         <v>7.6</v>
       </c>
       <c r="E16" s="1">
-        <f>B16+D16</f>
+        <f t="shared" si="0"/>
         <v>23.5</v>
       </c>
     </row>
@@ -671,7 +667,7 @@
         <v>16.7</v>
       </c>
       <c r="E17" s="1">
-        <f>B17+D17</f>
+        <f t="shared" si="0"/>
         <v>19.7</v>
       </c>
     </row>
@@ -689,7 +685,7 @@
         <v>20.5</v>
       </c>
       <c r="E18" s="1">
-        <f>B18+D18</f>
+        <f t="shared" si="0"/>
         <v>24.4</v>
       </c>
     </row>
@@ -707,7 +703,7 @@
         <v>0.7</v>
       </c>
       <c r="E19" s="1">
-        <f>B19+D19</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
     </row>
@@ -725,7 +721,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="E20" s="1">
-        <f>B20+D20</f>
+        <f t="shared" si="0"/>
         <v>28.200000000000003</v>
       </c>
     </row>
@@ -743,7 +739,7 @@
         <v>14.1</v>
       </c>
       <c r="E21" s="1">
-        <f>B21+D21</f>
+        <f t="shared" si="0"/>
         <v>15.9</v>
       </c>
     </row>
@@ -761,7 +757,7 @@
         <v>20.9</v>
       </c>
       <c r="E22" s="1">
-        <f>B22+D22</f>
+        <f t="shared" si="0"/>
         <v>30.799999999999997</v>
       </c>
     </row>
@@ -779,7 +775,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="1">
-        <f>B23+D23</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
@@ -797,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="1">
-        <f>B24+D24</f>
+        <f t="shared" si="0"/>
         <v>11.7</v>
       </c>
     </row>
@@ -815,7 +811,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="E25" s="1">
-        <f>B25+D25</f>
+        <f t="shared" si="0"/>
         <v>31.1</v>
       </c>
     </row>
@@ -833,7 +829,7 @@
         <v>7.8</v>
       </c>
       <c r="E26" s="1">
-        <f>B26-D26</f>
+        <f t="shared" ref="E26:E50" si="1">B26-D26</f>
         <v>-3.8</v>
       </c>
     </row>
@@ -851,7 +847,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E27" s="1">
-        <f>B27-D27</f>
+        <f t="shared" si="1"/>
         <v>11.1</v>
       </c>
     </row>
@@ -869,7 +865,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="E28" s="1">
-        <f>B28-D28</f>
+        <f t="shared" si="1"/>
         <v>-15.999999999999998</v>
       </c>
     </row>
@@ -887,7 +883,7 @@
         <v>1.3</v>
       </c>
       <c r="E29" s="1">
-        <f>B29-D29</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -905,7 +901,7 @@
         <v>19.3</v>
       </c>
       <c r="E30" s="1">
-        <f>B30-D30</f>
+        <f t="shared" si="1"/>
         <v>1.5999999999999979</v>
       </c>
     </row>
@@ -923,7 +919,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="E31" s="1">
-        <f>B31-D31</f>
+        <f t="shared" si="1"/>
         <v>-14.900000000000002</v>
       </c>
     </row>
@@ -941,7 +937,7 @@
         <v>1.9</v>
       </c>
       <c r="E32" s="1">
-        <f>B32-D32</f>
+        <f t="shared" si="1"/>
         <v>-0.7</v>
       </c>
     </row>
@@ -959,7 +955,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="E33" s="1">
-        <f>B33-D33</f>
+        <f t="shared" si="1"/>
         <v>-12.499999999999998</v>
       </c>
     </row>
@@ -977,7 +973,7 @@
         <v>7</v>
       </c>
       <c r="E34" s="1">
-        <f>B34-D34</f>
+        <f t="shared" si="1"/>
         <v>-0.20000000000000018</v>
       </c>
     </row>
@@ -995,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="1">
-        <f>B35-D35</f>
+        <f t="shared" si="1"/>
         <v>10.100000000000001</v>
       </c>
     </row>
@@ -1013,7 +1009,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="E36" s="1">
-        <f>B36-D36</f>
+        <f t="shared" si="1"/>
         <v>-1.4000000000000021</v>
       </c>
     </row>
@@ -1031,7 +1027,7 @@
         <v>3.7</v>
       </c>
       <c r="E37" s="1">
-        <f>B37-D37</f>
+        <f t="shared" si="1"/>
         <v>6.7</v>
       </c>
     </row>
@@ -1049,7 +1045,7 @@
         <v>11.2</v>
       </c>
       <c r="E38" s="1">
-        <f>B38-D38</f>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
     </row>
@@ -1067,7 +1063,7 @@
         <v>13</v>
       </c>
       <c r="E39" s="1">
-        <f>B39-D39</f>
+        <f t="shared" si="1"/>
         <v>-6.1</v>
       </c>
     </row>
@@ -1085,7 +1081,7 @@
         <v>5.8</v>
       </c>
       <c r="E40" s="1">
-        <f>B40-D40</f>
+        <f t="shared" si="1"/>
         <v>6.0000000000000009</v>
       </c>
     </row>
@@ -1103,7 +1099,7 @@
         <v>17.2</v>
       </c>
       <c r="E41" s="1">
-        <f>B41-D41</f>
+        <f t="shared" si="1"/>
         <v>-16.8</v>
       </c>
     </row>
@@ -1121,7 +1117,7 @@
         <v>4.7</v>
       </c>
       <c r="E42" s="1">
-        <f>B42-D42</f>
+        <f t="shared" si="1"/>
         <v>11.7</v>
       </c>
     </row>
@@ -1139,7 +1135,7 @@
         <v>12.4</v>
       </c>
       <c r="E43" s="1">
-        <f>B43-D43</f>
+        <f t="shared" si="1"/>
         <v>6.6</v>
       </c>
     </row>
@@ -1157,7 +1153,7 @@
         <v>12.4</v>
       </c>
       <c r="E44" s="1">
-        <f>B44-D44</f>
+        <f t="shared" si="1"/>
         <v>-8.1000000000000014</v>
       </c>
     </row>
@@ -1175,7 +1171,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E45" s="1">
-        <f>B45-D45</f>
+        <f t="shared" si="1"/>
         <v>2.6000000000000005</v>
       </c>
     </row>
@@ -1193,7 +1189,7 @@
         <v>20.5</v>
       </c>
       <c r="E46" s="1">
-        <f>B46-D46</f>
+        <f t="shared" si="1"/>
         <v>-15</v>
       </c>
     </row>
@@ -1211,7 +1207,7 @@
         <v>20.7</v>
       </c>
       <c r="E47" s="1">
-        <f>B47-D47</f>
+        <f t="shared" si="1"/>
         <v>-3.5</v>
       </c>
     </row>
@@ -1229,7 +1225,7 @@
         <v>11.2</v>
       </c>
       <c r="E48" s="1">
-        <f>B48-D48</f>
+        <f t="shared" si="1"/>
         <v>-3.3999999999999995</v>
       </c>
     </row>
@@ -1247,7 +1243,7 @@
         <v>9.5</v>
       </c>
       <c r="E49" s="1">
-        <f>B49-D49</f>
+        <f t="shared" si="1"/>
         <v>1.3000000000000007</v>
       </c>
     </row>
@@ -1265,7 +1261,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E50" s="1">
-        <f>B50-D50</f>
+        <f t="shared" si="1"/>
         <v>-13.7</v>
       </c>
     </row>
@@ -1283,7 +1279,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="E51" s="1">
-        <f>B51*D51</f>
+        <f t="shared" ref="E51:E75" si="2">B51*D51</f>
         <v>13.77</v>
       </c>
     </row>
@@ -1301,7 +1297,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E52" s="1">
-        <f>B52*D52</f>
+        <f t="shared" si="2"/>
         <v>18.260000000000002</v>
       </c>
     </row>
@@ -1319,7 +1315,7 @@
         <v>5.3</v>
       </c>
       <c r="E53" s="1">
-        <f>B53*D53</f>
+        <f t="shared" si="2"/>
         <v>22.79</v>
       </c>
     </row>
@@ -1337,7 +1333,7 @@
         <v>0.5</v>
       </c>
       <c r="E54" s="1">
-        <f>B54*D54</f>
+        <f t="shared" si="2"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -1355,7 +1351,7 @@
         <v>4.8</v>
       </c>
       <c r="E55" s="1">
-        <f>B55*D55</f>
+        <f t="shared" si="2"/>
         <v>14.879999999999999</v>
       </c>
     </row>
@@ -1373,7 +1369,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="E56" s="1">
-        <f>B56*D56</f>
+        <f t="shared" si="2"/>
         <v>6.370000000000001</v>
       </c>
     </row>
@@ -1391,7 +1387,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="E57" s="1">
-        <f>B57*D57</f>
+        <f t="shared" si="2"/>
         <v>80.08</v>
       </c>
     </row>
@@ -1409,7 +1405,7 @@
         <v>1.5</v>
       </c>
       <c r="E58" s="1">
-        <f>B58*D58</f>
+        <f t="shared" si="2"/>
         <v>3.4499999999999997</v>
       </c>
     </row>
@@ -1427,7 +1423,7 @@
         <v>5.7</v>
       </c>
       <c r="E59" s="1">
-        <f>B59*D59</f>
+        <f t="shared" si="2"/>
         <v>54.15</v>
       </c>
     </row>
@@ -1445,7 +1441,7 @@
         <v>0.5</v>
       </c>
       <c r="E60" s="1">
-        <f>B60*D60</f>
+        <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
     </row>
@@ -1463,7 +1459,7 @@
         <v>7.3</v>
       </c>
       <c r="E61" s="1">
-        <f>B61*D61</f>
+        <f t="shared" si="2"/>
         <v>22.63</v>
       </c>
     </row>
@@ -1481,7 +1477,7 @@
         <v>10.4</v>
       </c>
       <c r="E62" s="1">
-        <f>B62*D62</f>
+        <f t="shared" si="2"/>
         <v>29.119999999999997</v>
       </c>
     </row>
@@ -1499,7 +1495,7 @@
         <v>9.5</v>
       </c>
       <c r="E63" s="1">
-        <f>B63*D63</f>
+        <f t="shared" si="2"/>
         <v>49.4</v>
       </c>
     </row>
@@ -1517,7 +1513,7 @@
         <v>5.2</v>
       </c>
       <c r="E64" s="1">
-        <f>B64*D64</f>
+        <f t="shared" si="2"/>
         <v>34.32</v>
       </c>
     </row>
@@ -1535,7 +1531,7 @@
         <v>4.8</v>
       </c>
       <c r="E65" s="1">
-        <f>B65*D65</f>
+        <f t="shared" si="2"/>
         <v>13.92</v>
       </c>
     </row>
@@ -1553,7 +1549,7 @@
         <v>7.1</v>
       </c>
       <c r="E66" s="1">
-        <f>B66*D66</f>
+        <f t="shared" si="2"/>
         <v>61.769999999999989</v>
       </c>
     </row>
@@ -1571,7 +1567,7 @@
         <v>8.6</v>
       </c>
       <c r="E67" s="1">
-        <f>B67*D67</f>
+        <f t="shared" si="2"/>
         <v>80.84</v>
       </c>
     </row>
@@ -1589,7 +1585,7 @@
         <v>8</v>
       </c>
       <c r="E68" s="1">
-        <f>B68*D68</f>
+        <f t="shared" si="2"/>
         <v>67.2</v>
       </c>
     </row>
@@ -1607,7 +1603,7 @@
         <v>1.3</v>
       </c>
       <c r="E69" s="1">
-        <f>B69*D69</f>
+        <f t="shared" si="2"/>
         <v>13.78</v>
       </c>
     </row>
@@ -1625,7 +1621,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E70" s="1">
-        <f>B70*D70</f>
+        <f t="shared" si="2"/>
         <v>3.9099999999999997</v>
       </c>
     </row>
@@ -1643,7 +1639,7 @@
         <v>10.9</v>
       </c>
       <c r="E71" s="1">
-        <f>B71*D71</f>
+        <f t="shared" si="2"/>
         <v>6.54</v>
       </c>
     </row>
@@ -1661,7 +1657,7 @@
         <v>7.8</v>
       </c>
       <c r="E72" s="1">
-        <f>B72*D72</f>
+        <f t="shared" si="2"/>
         <v>67.08</v>
       </c>
     </row>
@@ -1679,7 +1675,7 @@
         <v>8.1</v>
       </c>
       <c r="E73" s="1">
-        <f>B73*D73</f>
+        <f t="shared" si="2"/>
         <v>72.09</v>
       </c>
     </row>
@@ -1697,7 +1693,7 @@
         <v>3.1</v>
       </c>
       <c r="E74" s="1">
-        <f>B74*D74</f>
+        <f t="shared" si="2"/>
         <v>5.89</v>
       </c>
     </row>
@@ -1715,7 +1711,7 @@
         <v>5.4</v>
       </c>
       <c r="E75" s="1">
-        <f>B75*D75</f>
+        <f t="shared" si="2"/>
         <v>9.18</v>
       </c>
     </row>
@@ -1733,7 +1729,7 @@
         <v>4</v>
       </c>
       <c r="E76" s="1">
-        <f>B76/D76</f>
+        <f t="shared" ref="E76:E100" si="3">B76/D76</f>
         <v>2.4750000000000001</v>
       </c>
     </row>
@@ -1751,7 +1747,7 @@
         <v>10</v>
       </c>
       <c r="E77" s="1">
-        <f>B77/D77</f>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
     </row>
@@ -1769,7 +1765,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="1">
-        <f>B78/D78</f>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
     </row>
@@ -1787,7 +1783,7 @@
         <v>5</v>
       </c>
       <c r="E79" s="1">
-        <f>B79/D79</f>
+        <f t="shared" si="3"/>
         <v>2.04</v>
       </c>
     </row>
@@ -1805,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="1">
-        <f>B80/D80</f>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
     </row>
@@ -1823,7 +1819,7 @@
         <v>10</v>
       </c>
       <c r="E81" s="1">
-        <f>B81/D81</f>
+        <f t="shared" si="3"/>
         <v>1.0699999999999998</v>
       </c>
     </row>
@@ -1841,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="E82" s="1">
-        <f>B82/D82</f>
+        <f t="shared" si="3"/>
         <v>0.98000000000000009</v>
       </c>
     </row>
@@ -1859,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="E83" s="1">
-        <f>B83/D83</f>
+        <f t="shared" si="3"/>
         <v>1.9000000000000001</v>
       </c>
     </row>
@@ -1877,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="E84" s="1">
-        <f>B84/D84</f>
+        <f t="shared" si="3"/>
         <v>2.08</v>
       </c>
     </row>
@@ -1895,7 +1891,7 @@
         <v>4</v>
       </c>
       <c r="E85" s="1">
-        <f>B85/D85</f>
+        <f t="shared" si="3"/>
         <v>2.0249999999999999</v>
       </c>
     </row>
@@ -1913,7 +1909,7 @@
         <v>4</v>
       </c>
       <c r="E86" s="1">
-        <f>B86/D86</f>
+        <f t="shared" si="3"/>
         <v>1.675</v>
       </c>
     </row>
@@ -1931,7 +1927,7 @@
         <v>2.5</v>
       </c>
       <c r="E87" s="1">
-        <f>B87/D87</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -1949,7 +1945,7 @@
         <v>3.3</v>
       </c>
       <c r="E88" s="1">
-        <f>B88/D88</f>
+        <f t="shared" si="3"/>
         <v>0.84848484848484851</v>
       </c>
     </row>
@@ -1967,7 +1963,7 @@
         <v>3.3</v>
       </c>
       <c r="E89" s="1">
-        <f>B89/D89</f>
+        <f t="shared" si="3"/>
         <v>0.54545454545454553</v>
       </c>
     </row>
@@ -1985,7 +1981,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E90" s="1">
-        <f>B90/D90</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
@@ -2003,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="E91" s="1">
-        <f>B91/D91</f>
+        <f t="shared" si="3"/>
         <v>0.70000000000000007</v>
       </c>
     </row>
@@ -2021,7 +2017,7 @@
         <v>3.4</v>
       </c>
       <c r="E92" s="1">
-        <f>B92/D92</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -2039,7 +2035,7 @@
         <v>3.3</v>
       </c>
       <c r="E93" s="1">
-        <f>B93/D93</f>
+        <f t="shared" si="3"/>
         <v>1.5757575757575759</v>
       </c>
     </row>
@@ -2057,7 +2053,7 @@
         <v>3.3</v>
       </c>
       <c r="E94" s="1">
-        <f>B94/D94</f>
+        <f t="shared" si="3"/>
         <v>0.30303030303030304</v>
       </c>
     </row>
@@ -2075,7 +2071,7 @@
         <v>3.3</v>
       </c>
       <c r="E95" s="1">
-        <f>B95/D95</f>
+        <f t="shared" si="3"/>
         <v>0.63636363636363646</v>
       </c>
     </row>
@@ -2093,7 +2089,7 @@
         <v>3.3</v>
       </c>
       <c r="E96" s="1">
-        <f>B96/D96</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2111,7 +2107,7 @@
         <v>0.8</v>
       </c>
       <c r="E97" s="1">
-        <f>B97/D97</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
@@ -2129,7 +2125,7 @@
         <v>0.5</v>
       </c>
       <c r="E98" s="1">
-        <f>B98/D98</f>
+        <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
     </row>
@@ -2147,7 +2143,7 @@
         <v>0.5</v>
       </c>
       <c r="E99" s="1">
-        <f>B99/D99</f>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
@@ -2165,11 +2161,12 @@
         <v>0.2</v>
       </c>
       <c r="E100" s="1">
-        <f>B100/D100</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>